--- a/Sonstige Dateien/Futterwerte_Riegler.xlsx
+++ b/Sonstige Dateien/Futterwerte_Riegler.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/mobile/Containers/Data/Application/32EF0596-F4D4-4ECB-A41B-99364709F4B0/Library/Application Support/Drafts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jakob\source\repos\blackFJ-Futtermittelration\Sonstige Dateien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0CE6C73-E24C-624E-B899-5C6C0C770A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152CA0A0-2DC6-4E96-8A4F-D35946F06A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="73">
   <si>
     <t> </t>
   </si>
@@ -114,70 +114,7 @@
     <t>0/0</t>
   </si>
   <si>
-    <t>이5</t>
-  </si>
-  <si>
-    <t>이3</t>
-  </si>
-  <si>
-    <t>기4</t>
-  </si>
-  <si>
-    <t>기1</t>
-  </si>
-  <si>
-    <t>이6</t>
-  </si>
-  <si>
-    <t>이2</t>
-  </si>
-  <si>
-    <t>기3</t>
-  </si>
-  <si>
-    <t>기2</t>
-  </si>
-  <si>
-    <t>이7</t>
-  </si>
-  <si>
-    <t>기5</t>
-  </si>
-  <si>
-    <t>기8</t>
-  </si>
-  <si>
-    <t>이8</t>
-  </si>
-  <si>
-    <t>이4</t>
-  </si>
-  <si>
-    <t>1이4</t>
-  </si>
-  <si>
-    <t>이9</t>
-  </si>
-  <si>
-    <t>기0</t>
-  </si>
-  <si>
-    <t>기7</t>
-  </si>
-  <si>
     <t>2 4</t>
-  </si>
-  <si>
-    <t>이1</t>
-  </si>
-  <si>
-    <t>기6</t>
-  </si>
-  <si>
-    <t>기9</t>
-  </si>
-  <si>
-    <t>1이0</t>
   </si>
   <si>
     <t>1 8</t>
@@ -222,9 +159,6 @@
     <t>Weizennachmehl</t>
   </si>
   <si>
-    <t>1이5</t>
-  </si>
-  <si>
     <t>0”9</t>
   </si>
   <si>
@@ -238,9 +172,6 @@
   </si>
   <si>
     <t>1 1 ,1</t>
-  </si>
-  <si>
-    <t>1이7</t>
   </si>
   <si>
     <t>Rapskuchen, fettarm</t>
@@ -303,25 +234,7 @@
     <t>Sonnenblumenextraktionsschrot, aus teilgeschälter Saat</t>
   </si>
   <si>
-    <t>1이8</t>
-  </si>
-  <si>
     <t>18 4</t>
-  </si>
-  <si>
-    <t>1이6</t>
-  </si>
-  <si>
-    <t>1기9</t>
-  </si>
-  <si>
-    <t>2이0</t>
-  </si>
-  <si>
-    <t>3이0</t>
-  </si>
-  <si>
-    <t>1기7</t>
   </si>
   <si>
     <t>Sonnenblumenkuchen, aus geschälter Saat</t>
@@ -342,19 +255,7 @@
     <t>Pflanzenfett/ -öl</t>
   </si>
   <si>
-    <t>1기4</t>
-  </si>
-  <si>
     <t>이0</t>
-  </si>
-  <si>
-    <t>1이3</t>
-  </si>
-  <si>
-    <t>1이2</t>
-  </si>
-  <si>
-    <t>1이9</t>
   </si>
 </sst>
 </file>
@@ -466,10 +367,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -478,7 +376,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -797,16 +698,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB880EA-B753-1B41-882D-F4072C0C922B}">
   <dimension ref="A1:AD37"/>
   <sheetViews>
-    <sheetView topLeftCell="J2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView topLeftCell="J1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AE12" sqref="AE12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.4375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -898,7 +799,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -935,17 +836,17 @@
       <c r="L2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>25</v>
+      <c r="M2" s="2">
+        <v>0.5</v>
       </c>
       <c r="N2" s="2">
         <v>5.3</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>27</v>
+      <c r="O2" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="P2" s="2">
+        <v>12.4</v>
       </c>
       <c r="Q2" s="2">
         <v>4</v>
@@ -953,8 +854,8 @@
       <c r="R2" s="2">
         <v>1.9</v>
       </c>
-      <c r="S2" s="2" t="s">
-        <v>28</v>
+      <c r="S2" s="2">
+        <v>12.1</v>
       </c>
       <c r="T2" s="2">
         <v>3.9</v>
@@ -990,7 +891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1027,14 +928,14 @@
       <c r="L3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>29</v>
+      <c r="M3" s="2">
+        <v>0.6</v>
       </c>
       <c r="N3" s="2">
         <v>6</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>26</v>
+      <c r="O3" s="2">
+        <v>0.3</v>
       </c>
       <c r="P3" s="2">
         <v>2.7</v>
@@ -1045,8 +946,8 @@
       <c r="R3" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="S3" s="2" t="s">
-        <v>27</v>
+      <c r="S3" s="2">
+        <v>12.4</v>
       </c>
       <c r="T3" s="2">
         <v>4.4000000000000004</v>
@@ -1082,7 +983,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="24.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="27" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1119,17 +1020,17 @@
       <c r="L4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>25</v>
+      <c r="M4" s="2">
+        <v>0.5</v>
       </c>
       <c r="N4" s="2">
         <v>6.3</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>31</v>
+      <c r="O4" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="P4" s="2">
+        <v>12.3</v>
       </c>
       <c r="Q4" s="2">
         <v>4.9000000000000004</v>
@@ -1174,7 +1075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -1211,14 +1112,14 @@
       <c r="L5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>29</v>
+      <c r="M5" s="2">
+        <v>0.6</v>
       </c>
       <c r="N5" s="2">
         <v>7.2</v>
       </c>
-      <c r="O5" s="2" t="s">
-        <v>30</v>
+      <c r="O5" s="2">
+        <v>0.2</v>
       </c>
       <c r="P5" s="2">
         <v>2.6</v>
@@ -1226,8 +1127,8 @@
       <c r="Q5" s="2">
         <v>5.6</v>
       </c>
-      <c r="R5" s="2" t="s">
-        <v>32</v>
+      <c r="R5" s="2">
+        <v>12.2</v>
       </c>
       <c r="S5" s="2">
         <v>2.5</v>
@@ -1266,7 +1167,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="24.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="27" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1303,26 +1204,26 @@
       <c r="L6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>29</v>
+      <c r="M6" s="2">
+        <v>0.6</v>
       </c>
       <c r="N6" s="2">
         <v>6.2</v>
       </c>
-      <c r="O6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>31</v>
+      <c r="O6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="P6" s="2">
+        <v>12.3</v>
       </c>
       <c r="Q6" s="2">
         <v>5.3</v>
       </c>
-      <c r="R6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>27</v>
+      <c r="R6" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="S6" s="2">
+        <v>12.4</v>
       </c>
       <c r="T6" s="2">
         <v>4.5</v>
@@ -1358,7 +1259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -1395,14 +1296,14 @@
       <c r="L7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>33</v>
+      <c r="M7" s="2">
+        <v>0.7</v>
       </c>
       <c r="N7" s="2">
         <v>7</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>30</v>
+      <c r="O7" s="2">
+        <v>0.2</v>
       </c>
       <c r="P7" s="2">
         <v>2.6</v>
@@ -1410,8 +1311,8 @@
       <c r="Q7" s="2">
         <v>6</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>27</v>
+      <c r="R7" s="2">
+        <v>12.4</v>
       </c>
       <c r="S7" s="2">
         <v>2.7</v>
@@ -1450,7 +1351,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1487,14 +1388,14 @@
       <c r="L8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M8" s="2" t="s">
-        <v>29</v>
+      <c r="M8" s="2">
+        <v>0.6</v>
       </c>
       <c r="N8" s="2">
         <v>6.4</v>
       </c>
-      <c r="O8" s="2" t="s">
-        <v>30</v>
+      <c r="O8" s="2">
+        <v>0.2</v>
       </c>
       <c r="P8" s="2">
         <v>2.2999999999999998</v>
@@ -1502,8 +1403,8 @@
       <c r="Q8" s="2">
         <v>5.2</v>
       </c>
-      <c r="R8" s="2" t="s">
-        <v>34</v>
+      <c r="R8" s="2">
+        <v>12.5</v>
       </c>
       <c r="S8" s="2">
         <v>2.5</v>
@@ -1542,7 +1443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
@@ -1579,14 +1480,14 @@
       <c r="L9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M9" s="2" t="s">
-        <v>33</v>
+      <c r="M9" s="2">
+        <v>0.7</v>
       </c>
       <c r="N9" s="2">
         <v>7.1</v>
       </c>
-      <c r="O9" s="2" t="s">
-        <v>30</v>
+      <c r="O9" s="2">
+        <v>0.2</v>
       </c>
       <c r="P9" s="2">
         <v>2.6</v>
@@ -1594,11 +1495,11 @@
       <c r="Q9" s="2">
         <v>5.8</v>
       </c>
-      <c r="R9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>35</v>
+      <c r="R9" s="2">
+        <v>12.8</v>
+      </c>
+      <c r="S9" s="2">
+        <v>12.8</v>
       </c>
       <c r="T9" s="2">
         <v>5.4</v>
@@ -1634,7 +1535,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1671,14 +1572,14 @@
       <c r="L10" s="2">
         <v>59</v>
       </c>
-      <c r="M10" s="2" t="s">
-        <v>36</v>
+      <c r="M10" s="2">
+        <v>0.8</v>
       </c>
       <c r="N10" s="2">
         <v>4.9000000000000004</v>
       </c>
-      <c r="O10" s="2" t="s">
-        <v>37</v>
+      <c r="O10" s="2">
+        <v>0.4</v>
       </c>
       <c r="P10" s="2">
         <v>1.3</v>
@@ -1689,8 +1590,8 @@
       <c r="R10" s="2">
         <v>14.9</v>
       </c>
-      <c r="S10" s="2" t="s">
-        <v>38</v>
+      <c r="S10" s="2">
+        <v>10.4</v>
       </c>
       <c r="T10" s="2">
         <v>19.600000000000001</v>
@@ -1726,7 +1627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
@@ -1763,14 +1664,14 @@
       <c r="L11" s="2">
         <v>66</v>
       </c>
-      <c r="M11" s="2" t="s">
-        <v>39</v>
+      <c r="M11" s="2">
+        <v>0.9</v>
       </c>
       <c r="N11" s="2">
         <v>5.5</v>
       </c>
-      <c r="O11" s="2" t="s">
-        <v>37</v>
+      <c r="O11" s="2">
+        <v>0.4</v>
       </c>
       <c r="P11" s="2">
         <v>1.5</v>
@@ -1818,7 +1719,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -1855,8 +1756,8 @@
       <c r="L12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M12" s="2" t="s">
-        <v>39</v>
+      <c r="M12" s="2">
+        <v>0.9</v>
       </c>
       <c r="N12" s="2">
         <v>6.3</v>
@@ -1910,7 +1811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
@@ -1953,8 +1854,8 @@
       <c r="N13" s="2">
         <v>7</v>
       </c>
-      <c r="O13" s="2" t="s">
-        <v>40</v>
+      <c r="O13" s="2">
+        <v>12</v>
       </c>
       <c r="P13" s="2">
         <v>3.8</v>
@@ -2002,7 +1903,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -2045,8 +1946,8 @@
       <c r="N14" s="2">
         <v>7.8</v>
       </c>
-      <c r="O14" s="2" t="s">
-        <v>31</v>
+      <c r="O14" s="2">
+        <v>12.3</v>
       </c>
       <c r="P14" s="2">
         <v>3.5</v>
@@ -2094,7 +1995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
@@ -2137,8 +2038,8 @@
       <c r="N15" s="2">
         <v>8.6999999999999993</v>
       </c>
-      <c r="O15" s="2" t="s">
-        <v>34</v>
+      <c r="O15" s="2">
+        <v>12.5</v>
       </c>
       <c r="P15" s="2">
         <v>3.9</v>
@@ -2186,7 +2087,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
@@ -2229,8 +2130,8 @@
       <c r="N16" s="2">
         <v>7.7</v>
       </c>
-      <c r="O16" s="2" t="s">
-        <v>27</v>
+      <c r="O16" s="2">
+        <v>12.4</v>
       </c>
       <c r="P16" s="2">
         <v>3.9</v>
@@ -2278,7 +2179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
@@ -2321,8 +2222,8 @@
       <c r="N17" s="2">
         <v>8.5</v>
       </c>
-      <c r="O17" s="2" t="s">
-        <v>41</v>
+      <c r="O17" s="2">
+        <v>12.7</v>
       </c>
       <c r="P17" s="2">
         <v>4.3</v>
@@ -2370,7 +2271,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
@@ -2413,8 +2314,8 @@
       <c r="N18" s="2">
         <v>4.5999999999999996</v>
       </c>
-      <c r="O18" s="2" t="s">
-        <v>34</v>
+      <c r="O18" s="2">
+        <v>12.5</v>
       </c>
       <c r="P18" s="2">
         <v>3.6</v>
@@ -2462,7 +2363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
@@ -2505,8 +2406,8 @@
       <c r="N19" s="2">
         <v>5.0999999999999996</v>
       </c>
-      <c r="O19" s="2" t="s">
-        <v>35</v>
+      <c r="O19" s="2">
+        <v>12.8</v>
       </c>
       <c r="P19" s="2">
         <v>4</v>
@@ -2554,7 +2455,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>13</v>
       </c>
@@ -2591,14 +2492,14 @@
       <c r="L20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M20" s="2" t="s">
-        <v>25</v>
+      <c r="M20" s="2">
+        <v>0.5</v>
       </c>
       <c r="N20" s="2">
         <v>3.5</v>
       </c>
-      <c r="O20" s="2" t="s">
-        <v>26</v>
+      <c r="O20" s="2">
+        <v>0.3</v>
       </c>
       <c r="P20" s="2">
         <v>1.1000000000000001</v>
@@ -2646,7 +2547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>0</v>
       </c>
@@ -2683,14 +2584,14 @@
       <c r="L21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M21" s="2" t="s">
-        <v>29</v>
+      <c r="M21" s="2">
+        <v>0.6</v>
       </c>
       <c r="N21" s="2">
         <v>4</v>
       </c>
-      <c r="O21" s="2" t="s">
-        <v>26</v>
+      <c r="O21" s="2">
+        <v>0.3</v>
       </c>
       <c r="P21" s="2">
         <v>1.3</v>
@@ -2698,8 +2599,8 @@
       <c r="Q21" s="2">
         <v>5.0999999999999996</v>
       </c>
-      <c r="R21" s="2" t="s">
-        <v>32</v>
+      <c r="R21" s="2">
+        <v>12.2</v>
       </c>
       <c r="S21" s="2">
         <v>2.5</v>
@@ -2738,7 +2639,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
@@ -2830,7 +2731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>15</v>
       </c>
@@ -2867,14 +2768,14 @@
       <c r="L23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M23" s="2" t="s">
-        <v>36</v>
+      <c r="M23" s="2">
+        <v>0.8</v>
       </c>
       <c r="N23" s="2">
         <v>5.3</v>
       </c>
-      <c r="O23" s="2" t="s">
-        <v>30</v>
+      <c r="O23" s="2">
+        <v>0.2</v>
       </c>
       <c r="P23" s="2">
         <v>4.4000000000000004</v>
@@ -2888,8 +2789,8 @@
       <c r="S23" s="2">
         <v>1.8</v>
       </c>
-      <c r="T23" s="2" t="s">
-        <v>35</v>
+      <c r="T23" s="2">
+        <v>12.8</v>
       </c>
       <c r="U23" s="2">
         <v>1.2</v>
@@ -2922,7 +2823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>0</v>
       </c>
@@ -2959,14 +2860,14 @@
       <c r="L24" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M24" s="2" t="s">
-        <v>39</v>
+      <c r="M24" s="2">
+        <v>0.9</v>
       </c>
       <c r="N24" s="2">
         <v>6</v>
       </c>
-      <c r="O24" s="2" t="s">
-        <v>30</v>
+      <c r="O24" s="2">
+        <v>0.2</v>
       </c>
       <c r="P24" s="2">
         <v>5</v>
@@ -2975,7 +2876,7 @@
         <v>3.2</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="S24" s="2">
         <v>2.1</v>
@@ -3014,7 +2915,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>16</v>
       </c>
@@ -3051,20 +2952,20 @@
       <c r="L25" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M25" s="2" t="s">
-        <v>30</v>
+      <c r="M25" s="2">
+        <v>0.2</v>
       </c>
       <c r="N25" s="2">
         <v>1</v>
       </c>
-      <c r="O25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>44</v>
+      <c r="O25" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>12.6</v>
       </c>
       <c r="R25" s="2">
         <v>1.9</v>
@@ -3072,8 +2973,8 @@
       <c r="S25" s="2">
         <v>1.7</v>
       </c>
-      <c r="T25" s="2" t="s">
-        <v>44</v>
+      <c r="T25" s="2">
+        <v>12.6</v>
       </c>
       <c r="U25" s="2">
         <v>1</v>
@@ -3106,7 +3007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>0</v>
       </c>
@@ -3143,17 +3044,17 @@
       <c r="L26" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M26" s="2" t="s">
-        <v>30</v>
+      <c r="M26" s="2">
+        <v>0.2</v>
       </c>
       <c r="N26" s="2">
         <v>1.2</v>
       </c>
-      <c r="O26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>25</v>
+      <c r="O26" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="P26" s="2">
+        <v>0.5</v>
       </c>
       <c r="Q26" s="2">
         <v>3</v>
@@ -3198,7 +3099,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>17</v>
       </c>
@@ -3290,7 +3191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>18</v>
       </c>
@@ -3327,14 +3228,14 @@
       <c r="L28" s="2">
         <v>235</v>
       </c>
-      <c r="M28" s="2" t="s">
-        <v>25</v>
+      <c r="M28" s="2">
+        <v>0.5</v>
       </c>
       <c r="N28" s="2">
         <v>3</v>
       </c>
-      <c r="O28" s="2" t="s">
-        <v>43</v>
+      <c r="O28" s="2">
+        <v>0.1</v>
       </c>
       <c r="P28" s="2">
         <v>1</v>
@@ -3348,8 +3249,8 @@
       <c r="S28" s="2">
         <v>2.1</v>
       </c>
-      <c r="T28" s="2" t="s">
-        <v>45</v>
+      <c r="T28" s="2">
+        <v>12.9</v>
       </c>
       <c r="U28" s="2">
         <v>1</v>
@@ -3382,7 +3283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>0</v>
       </c>
@@ -3419,14 +3320,14 @@
       <c r="L29" s="2">
         <v>270</v>
       </c>
-      <c r="M29" s="2" t="s">
-        <v>29</v>
+      <c r="M29" s="2">
+        <v>0.6</v>
       </c>
       <c r="N29" s="2">
         <v>3.5</v>
       </c>
-      <c r="O29" s="2" t="s">
-        <v>43</v>
+      <c r="O29" s="2">
+        <v>0.1</v>
       </c>
       <c r="P29" s="2">
         <v>1.2</v>
@@ -3437,8 +3338,8 @@
       <c r="R29" s="2">
         <v>1.7</v>
       </c>
-      <c r="S29" s="2" t="s">
-        <v>27</v>
+      <c r="S29" s="2">
+        <v>12.4</v>
       </c>
       <c r="T29" s="2">
         <v>3.3</v>
@@ -3474,7 +3375,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>19</v>
       </c>
@@ -3517,8 +3418,8 @@
       <c r="N30" s="2">
         <v>8.1</v>
       </c>
-      <c r="O30" s="2" t="s">
-        <v>30</v>
+      <c r="O30" s="2">
+        <v>0.2</v>
       </c>
       <c r="P30" s="2">
         <v>3.3</v>
@@ -3566,7 +3467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>0</v>
       </c>
@@ -3609,8 +3510,8 @@
       <c r="N31" s="2">
         <v>9.1999999999999993</v>
       </c>
-      <c r="O31" s="2" t="s">
-        <v>30</v>
+      <c r="O31" s="2">
+        <v>0.2</v>
       </c>
       <c r="P31" s="2">
         <v>3.8</v>
@@ -3618,8 +3519,8 @@
       <c r="Q31" s="2">
         <v>5</v>
       </c>
-      <c r="R31" s="2" t="s">
-        <v>35</v>
+      <c r="R31" s="2">
+        <v>12.8</v>
       </c>
       <c r="S31" s="2">
         <v>3</v>
@@ -3658,7 +3559,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>20</v>
       </c>
@@ -3701,11 +3602,11 @@
       <c r="N32" s="2">
         <v>8.8000000000000007</v>
       </c>
-      <c r="O32" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>45</v>
+      <c r="O32" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="P32" s="2">
+        <v>12.9</v>
       </c>
       <c r="Q32" s="2">
         <v>6.1</v>
@@ -3750,7 +3651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>0</v>
       </c>
@@ -3790,11 +3691,11 @@
       <c r="M33" s="2">
         <v>1.4</v>
       </c>
-      <c r="N33" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>30</v>
+      <c r="N33" s="2">
+        <v>10</v>
+      </c>
+      <c r="O33" s="2">
+        <v>0.2</v>
       </c>
       <c r="P33" s="2">
         <v>3.3</v>
@@ -3842,7 +3743,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>21</v>
       </c>
@@ -3885,8 +3786,8 @@
       <c r="N34" s="2">
         <v>9.8000000000000007</v>
       </c>
-      <c r="O34" s="2" t="s">
-        <v>29</v>
+      <c r="O34" s="2">
+        <v>0.6</v>
       </c>
       <c r="P34" s="2">
         <v>3.2</v>
@@ -3934,7 +3835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:30" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>0</v>
       </c>
@@ -3977,8 +3878,8 @@
       <c r="N35" s="2">
         <v>11.1</v>
       </c>
-      <c r="O35" s="2" t="s">
-        <v>33</v>
+      <c r="O35" s="2">
+        <v>0.7</v>
       </c>
       <c r="P35" s="2">
         <v>3.6</v>
@@ -4026,7 +3927,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:30" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>22</v>
       </c>
@@ -4063,23 +3964,23 @@
       <c r="L36" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M36" s="2" t="s">
-        <v>36</v>
+      <c r="M36" s="2">
+        <v>0.8</v>
       </c>
       <c r="N36" s="2">
         <v>4.5999999999999996</v>
       </c>
-      <c r="O36" s="2" t="s">
-        <v>43</v>
+      <c r="O36" s="2">
+        <v>0.1</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="Q36" s="2">
         <v>5</v>
       </c>
-      <c r="R36" s="2" t="s">
-        <v>32</v>
+      <c r="R36" s="2">
+        <v>12.2</v>
       </c>
       <c r="S36" s="2">
         <v>5.2</v>
@@ -4118,7 +4019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:30" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>0</v>
       </c>
@@ -4155,14 +4056,14 @@
       <c r="L37" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M37" s="2" t="s">
-        <v>39</v>
+      <c r="M37" s="2">
+        <v>0.9</v>
       </c>
       <c r="N37" s="2">
         <v>5.2</v>
       </c>
-      <c r="O37" s="2" t="s">
-        <v>43</v>
+      <c r="O37" s="2">
+        <v>0.1</v>
       </c>
       <c r="P37" s="2">
         <v>2</v>
@@ -4223,12 +4124,12 @@
       <selection activeCell="V31" sqref="V31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.4375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4326,9 +4227,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -4422,9 +4323,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
@@ -4465,14 +4366,14 @@
       <c r="N3" s="2">
         <v>10</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>37</v>
+      <c r="O3" s="2">
+        <v>0.4</v>
       </c>
       <c r="P3" s="2">
         <v>3.2</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>43</v>
+      <c r="Q3" s="2">
+        <v>0.1</v>
       </c>
       <c r="R3" s="2">
         <v>1.1000000000000001</v>
@@ -4483,8 +4384,8 @@
       <c r="T3" s="2">
         <v>1.8</v>
       </c>
-      <c r="U3" s="2" t="s">
-        <v>44</v>
+      <c r="U3" s="2">
+        <v>12.6</v>
       </c>
       <c r="V3" s="2">
         <v>3.2</v>
@@ -4520,7 +4421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -4563,14 +4464,14 @@
       <c r="N4" s="2">
         <v>12</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>25</v>
+      <c r="O4" s="2">
+        <v>0.5</v>
       </c>
       <c r="P4" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="Q4" s="2" t="s">
-        <v>30</v>
+      <c r="Q4" s="2">
+        <v>0.2</v>
       </c>
       <c r="R4" s="2">
         <v>1.3</v>
@@ -4578,8 +4479,8 @@
       <c r="S4" s="2">
         <v>4</v>
       </c>
-      <c r="T4" s="2" t="s">
-        <v>28</v>
+      <c r="T4" s="2">
+        <v>12.1</v>
       </c>
       <c r="U4" s="2">
         <v>3</v>
@@ -4618,9 +4519,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>0</v>
@@ -4716,9 +4617,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="24.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" ht="27" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
@@ -4759,14 +4660,14 @@
       <c r="N6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="O6" s="2" t="s">
-        <v>37</v>
+      <c r="O6" s="2">
+        <v>0.4</v>
       </c>
       <c r="P6" s="2">
         <v>3.3</v>
       </c>
-      <c r="Q6" s="2" t="s">
-        <v>43</v>
+      <c r="Q6" s="2">
+        <v>0.1</v>
       </c>
       <c r="R6" s="2">
         <v>1.1000000000000001</v>
@@ -4814,7 +4715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -4857,14 +4758,14 @@
       <c r="N7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>25</v>
+      <c r="O7" s="2">
+        <v>0.5</v>
       </c>
       <c r="P7" s="2">
         <v>3.8</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>43</v>
+      <c r="Q7" s="2">
+        <v>0.1</v>
       </c>
       <c r="R7" s="2">
         <v>1.2</v>
@@ -4912,9 +4813,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="24.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" ht="27" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
@@ -4955,14 +4856,14 @@
       <c r="N8" s="2">
         <v>8</v>
       </c>
-      <c r="O8" s="2" t="s">
-        <v>33</v>
+      <c r="O8" s="2">
+        <v>0.7</v>
       </c>
       <c r="P8" s="2">
         <v>3.3</v>
       </c>
-      <c r="Q8" s="2" t="s">
-        <v>30</v>
+      <c r="Q8" s="2">
+        <v>0.2</v>
       </c>
       <c r="R8" s="2">
         <v>1.1000000000000001</v>
@@ -4970,8 +4871,8 @@
       <c r="S8" s="2">
         <v>3.4</v>
       </c>
-      <c r="T8" s="2" t="s">
-        <v>40</v>
+      <c r="T8" s="2">
+        <v>12</v>
       </c>
       <c r="U8" s="2">
         <v>2.8</v>
@@ -5010,7 +4911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
@@ -5053,14 +4954,14 @@
       <c r="N9" s="2">
         <v>9</v>
       </c>
-      <c r="O9" s="2" t="s">
-        <v>36</v>
+      <c r="O9" s="2">
+        <v>0.8</v>
       </c>
       <c r="P9" s="2">
         <v>3.9</v>
       </c>
-      <c r="Q9" s="2" t="s">
-        <v>30</v>
+      <c r="Q9" s="2">
+        <v>0.2</v>
       </c>
       <c r="R9" s="2">
         <v>1.3</v>
@@ -5108,9 +5009,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
@@ -5151,14 +5052,14 @@
       <c r="N10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="O10" s="2" t="s">
-        <v>29</v>
+      <c r="O10" s="2">
+        <v>0.6</v>
       </c>
       <c r="P10" s="2">
         <v>3.3</v>
       </c>
-      <c r="Q10" s="2" t="s">
-        <v>43</v>
+      <c r="Q10" s="2">
+        <v>0.1</v>
       </c>
       <c r="R10" s="2">
         <v>1.1000000000000001</v>
@@ -5206,7 +5107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
@@ -5249,14 +5150,14 @@
       <c r="N11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="O11" s="2" t="s">
-        <v>33</v>
+      <c r="O11" s="2">
+        <v>0.7</v>
       </c>
       <c r="P11" s="2">
         <v>3.8</v>
       </c>
-      <c r="Q11" s="2" t="s">
-        <v>43</v>
+      <c r="Q11" s="2">
+        <v>0.1</v>
       </c>
       <c r="R11" s="2">
         <v>1.3</v>
@@ -5264,8 +5165,8 @@
       <c r="S11" s="2">
         <v>3.9</v>
       </c>
-      <c r="T11" s="2" t="s">
-        <v>32</v>
+      <c r="T11" s="2">
+        <v>12.2</v>
       </c>
       <c r="U11" s="2">
         <v>5.0999999999999996</v>
@@ -5304,9 +5205,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>0</v>
@@ -5353,8 +5254,8 @@
       <c r="P12" s="2">
         <v>6.7</v>
       </c>
-      <c r="Q12" s="2" t="s">
-        <v>26</v>
+      <c r="Q12" s="2">
+        <v>0.3</v>
       </c>
       <c r="R12" s="2">
         <v>2.8</v>
@@ -5362,8 +5263,8 @@
       <c r="S12" s="2">
         <v>6.9</v>
       </c>
-      <c r="T12" s="2" t="s">
-        <v>44</v>
+      <c r="T12" s="2">
+        <v>12.6</v>
       </c>
       <c r="U12" s="2">
         <v>3.2</v>
@@ -5402,7 +5303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
@@ -5451,8 +5352,8 @@
       <c r="P13" s="2">
         <v>7.6</v>
       </c>
-      <c r="Q13" s="2" t="s">
-        <v>26</v>
+      <c r="Q13" s="2">
+        <v>0.3</v>
       </c>
       <c r="R13" s="2">
         <v>3.2</v>
@@ -5500,9 +5401,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
@@ -5549,8 +5450,8 @@
       <c r="P14" s="2">
         <v>9.1999999999999993</v>
       </c>
-      <c r="Q14" s="2" t="s">
-        <v>26</v>
+      <c r="Q14" s="2">
+        <v>0.3</v>
       </c>
       <c r="R14" s="2">
         <v>3.5</v>
@@ -5558,8 +5459,8 @@
       <c r="S14" s="2">
         <v>6.1</v>
       </c>
-      <c r="T14" s="2" t="s">
-        <v>32</v>
+      <c r="T14" s="2">
+        <v>12.2</v>
       </c>
       <c r="U14" s="2">
         <v>3.5</v>
@@ -5598,7 +5499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
@@ -5644,11 +5545,11 @@
       <c r="O15" s="2">
         <v>1.3</v>
       </c>
-      <c r="P15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>26</v>
+      <c r="P15" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0.3</v>
       </c>
       <c r="R15" s="2">
         <v>4</v>
@@ -5665,8 +5566,8 @@
       <c r="V15" s="2">
         <v>5.6</v>
       </c>
-      <c r="W15" s="2" t="s">
-        <v>27</v>
+      <c r="W15" s="2">
+        <v>12.4</v>
       </c>
       <c r="X15" s="2">
         <v>71</v>
@@ -5696,9 +5597,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>0</v>
@@ -5739,17 +5640,17 @@
       <c r="N16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="O16" s="2" t="s">
-        <v>29</v>
+      <c r="O16" s="2">
+        <v>0.6</v>
       </c>
       <c r="P16" s="2">
         <v>8.6999999999999993</v>
       </c>
-      <c r="Q16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>27</v>
+      <c r="Q16" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="R16" s="2">
+        <v>12.4</v>
       </c>
       <c r="S16" s="2">
         <v>15</v>
@@ -5794,7 +5695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
@@ -5837,17 +5738,17 @@
       <c r="N17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="O17" s="2" t="s">
-        <v>33</v>
+      <c r="O17" s="2">
+        <v>0.7</v>
       </c>
       <c r="P17" s="2">
         <v>9.9</v>
       </c>
-      <c r="Q17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>41</v>
+      <c r="Q17" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="R17" s="2">
+        <v>12.7</v>
       </c>
       <c r="S17" s="2">
         <v>17</v>
@@ -5892,9 +5793,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:32" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>0</v>
@@ -5990,7 +5891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
@@ -6088,9 +5989,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>0</v>
@@ -6131,8 +6032,8 @@
       <c r="N20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="O20" s="2" t="s">
-        <v>25</v>
+      <c r="O20" s="2">
+        <v>0.5</v>
       </c>
       <c r="P20" s="2">
         <v>7.6</v>
@@ -6155,8 +6056,8 @@
       <c r="V20" s="2">
         <v>5.3</v>
       </c>
-      <c r="W20" s="2" t="s">
-        <v>31</v>
+      <c r="W20" s="2">
+        <v>12.3</v>
       </c>
       <c r="X20" s="3" t="s">
         <v>0</v>
@@ -6186,7 +6087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>0</v>
       </c>
@@ -6229,8 +6130,8 @@
       <c r="N21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="O21" s="2" t="s">
-        <v>29</v>
+      <c r="O21" s="2">
+        <v>0.6</v>
       </c>
       <c r="P21" s="2">
         <v>8.4</v>
@@ -6244,8 +6145,8 @@
       <c r="S21" s="2">
         <v>6</v>
       </c>
-      <c r="T21" s="2" t="s">
-        <v>41</v>
+      <c r="T21" s="2">
+        <v>12.7</v>
       </c>
       <c r="U21" s="2">
         <v>3.9</v>
@@ -6284,9 +6185,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:32" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>0</v>
@@ -6333,8 +6234,8 @@
       <c r="P22" s="2">
         <v>11.4</v>
       </c>
-      <c r="Q22" s="2" t="s">
-        <v>37</v>
+      <c r="Q22" s="2">
+        <v>0.4</v>
       </c>
       <c r="R22" s="2">
         <v>4.7</v>
@@ -6342,8 +6243,8 @@
       <c r="S22" s="2">
         <v>5.7</v>
       </c>
-      <c r="T22" s="2" t="s">
-        <v>28</v>
+      <c r="T22" s="2">
+        <v>12.1</v>
       </c>
       <c r="U22" s="2">
         <v>3.2</v>
@@ -6351,8 +6252,8 @@
       <c r="V22" s="2">
         <v>4.9000000000000004</v>
       </c>
-      <c r="W22" s="2" t="s">
-        <v>31</v>
+      <c r="W22" s="2">
+        <v>12.3</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>0</v>
@@ -6382,7 +6283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
@@ -6431,8 +6332,8 @@
       <c r="P23" s="2">
         <v>13</v>
       </c>
-      <c r="Q23" s="2" t="s">
-        <v>37</v>
+      <c r="Q23" s="2">
+        <v>0.4</v>
       </c>
       <c r="R23" s="2">
         <v>5.3</v>
@@ -6440,8 +6341,8 @@
       <c r="S23" s="2">
         <v>6.5</v>
       </c>
-      <c r="T23" s="2" t="s">
-        <v>27</v>
+      <c r="T23" s="2">
+        <v>12.4</v>
       </c>
       <c r="U23" s="2">
         <v>3.6</v>
@@ -6480,9 +6381,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:32" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>0</v>
@@ -6523,14 +6424,14 @@
       <c r="N24" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="O24" s="2" t="s">
-        <v>33</v>
+      <c r="O24" s="2">
+        <v>0.7</v>
       </c>
       <c r="P24" s="2">
         <v>6.1</v>
       </c>
-      <c r="Q24" s="2" t="s">
-        <v>43</v>
+      <c r="Q24" s="2">
+        <v>0.1</v>
       </c>
       <c r="R24" s="2">
         <v>1.9</v>
@@ -6538,8 +6439,8 @@
       <c r="S24" s="2">
         <v>6.5</v>
       </c>
-      <c r="T24" s="2" t="s">
-        <v>27</v>
+      <c r="T24" s="2">
+        <v>12.4</v>
       </c>
       <c r="U24" s="2">
         <v>3.4</v>
@@ -6578,7 +6479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:32" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>0</v>
       </c>
@@ -6622,22 +6523,22 @@
         <v>0</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="P25" s="2">
         <v>7</v>
       </c>
-      <c r="Q25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>32</v>
+      <c r="Q25" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="R25" s="2">
+        <v>12.2</v>
       </c>
       <c r="S25" s="2">
         <v>7.5</v>
       </c>
-      <c r="T25" s="2" t="s">
-        <v>35</v>
+      <c r="T25" s="2">
+        <v>12.8</v>
       </c>
       <c r="U25" s="2">
         <v>3.9</v>
@@ -6645,8 +6546,8 @@
       <c r="V25" s="2">
         <v>6.2</v>
       </c>
-      <c r="W25" s="2" t="s">
-        <v>34</v>
+      <c r="W25" s="2">
+        <v>12.5</v>
       </c>
       <c r="X25" s="2">
         <v>90</v>
@@ -6689,14 +6590,14 @@
       <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.15234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -6735,9 +6636,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2">
         <v>900</v>
@@ -6781,8 +6682,8 @@
       <c r="O2" s="1">
         <v>7.2</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>26</v>
+      <c r="P2" s="1">
+        <v>0.3</v>
       </c>
       <c r="Q2" s="1">
         <v>3</v>
@@ -6799,8 +6700,8 @@
       <c r="U2" s="1">
         <v>9</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>41</v>
+      <c r="V2" s="1">
+        <v>12.7</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>0</v>
@@ -6830,7 +6731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -6876,8 +6777,8 @@
       <c r="O3" s="2">
         <v>8</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>26</v>
+      <c r="P3" s="2">
+        <v>0.3</v>
       </c>
       <c r="Q3" s="2">
         <v>3.3</v>
@@ -6891,8 +6792,8 @@
       <c r="T3" s="2">
         <v>4.5</v>
       </c>
-      <c r="U3" s="2" t="s">
-        <v>46</v>
+      <c r="U3" s="2">
+        <v>10</v>
       </c>
       <c r="V3" s="2">
         <v>3</v>
@@ -6925,9 +6826,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2">
         <v>890</v>
@@ -6968,11 +6869,11 @@
       <c r="N4" s="2">
         <v>7.7</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>25</v>
+      <c r="O4" s="2">
+        <v>10.7</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.5</v>
       </c>
       <c r="Q4" s="2">
         <v>5.3</v>
@@ -7020,7 +6921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -7028,7 +6929,7 @@
         <v>1000</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2">
         <v>77</v>
@@ -7066,8 +6967,8 @@
       <c r="O5" s="2">
         <v>12</v>
       </c>
-      <c r="P5" s="2" t="s">
-        <v>29</v>
+      <c r="P5" s="2">
+        <v>0.6</v>
       </c>
       <c r="Q5" s="2">
         <v>5.9</v>
@@ -7115,7 +7016,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>0</v>
@@ -7206,7 +7107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" ht="16.8" x14ac:dyDescent="0.3">
       <c r="N7" s="3" t="s">
         <v>0</v>
       </c>
@@ -7269,16 +7170,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27CA7B1C-5F2B-C242-93F5-26ECCACA92E6}">
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.98046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7385,9 +7286,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -7440,11 +7341,11 @@
       <c r="R2" s="2">
         <v>6.8</v>
       </c>
-      <c r="S2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>26</v>
+      <c r="S2" s="2">
+        <v>10.8</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0.3</v>
       </c>
       <c r="U2" s="2">
         <v>4.5</v>
@@ -7492,7 +7393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -7599,9 +7500,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
@@ -7654,11 +7555,11 @@
       <c r="R4" s="2">
         <v>6.8</v>
       </c>
-      <c r="S4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>26</v>
+      <c r="S4" s="2">
+        <v>10.8</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0.3</v>
       </c>
       <c r="U4" s="2">
         <v>4.5</v>
@@ -7706,7 +7607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -7764,8 +7665,8 @@
       <c r="S5" s="2">
         <v>12</v>
       </c>
-      <c r="T5" s="2" t="s">
-        <v>26</v>
+      <c r="T5" s="2">
+        <v>0.3</v>
       </c>
       <c r="U5" s="2">
         <v>5</v>
@@ -7813,9 +7714,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
@@ -7920,7 +7821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -8027,9 +7928,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
@@ -8058,18 +7959,18 @@
       <c r="J8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="N8" s="5"/>
-      <c r="O8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="P8" s="5"/>
+      <c r="K8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="8"/>
+      <c r="M8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" s="8"/>
+      <c r="O8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8" s="8"/>
       <c r="Q8" s="3" t="s">
         <v>0</v>
       </c>
@@ -8128,9 +8029,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>0</v>
@@ -8186,8 +8087,8 @@
       <c r="S9" s="2">
         <v>11.3</v>
       </c>
-      <c r="T9" s="2" t="s">
-        <v>26</v>
+      <c r="T9" s="2">
+        <v>0.3</v>
       </c>
       <c r="U9" s="2">
         <v>5.9</v>
@@ -8235,7 +8136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
@@ -8287,14 +8188,14 @@
       <c r="Q10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="R10" s="2" t="s">
-        <v>40</v>
+      <c r="R10" s="2">
+        <v>12</v>
       </c>
       <c r="S10" s="2">
         <v>12.5</v>
       </c>
-      <c r="T10" s="2" t="s">
-        <v>26</v>
+      <c r="T10" s="2">
+        <v>0.3</v>
       </c>
       <c r="U10" s="2">
         <v>6.5</v>
@@ -8308,8 +8209,8 @@
       <c r="X10" s="2">
         <v>6.1</v>
       </c>
-      <c r="Y10" s="2" t="s">
-        <v>61</v>
+      <c r="Y10" s="2">
+        <v>10.5</v>
       </c>
       <c r="Z10" s="2">
         <v>4.8</v>
@@ -8342,9 +8243,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>0</v>
@@ -8395,19 +8296,19 @@
         <v>0</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>43</v>
+        <v>65</v>
+      </c>
+      <c r="S11" s="2">
+        <v>10.6</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0.1</v>
       </c>
       <c r="U11" s="2">
         <v>6</v>
       </c>
-      <c r="V11" s="2" t="s">
-        <v>91</v>
+      <c r="V11" s="2">
+        <v>112.9</v>
       </c>
       <c r="W11" s="2">
         <v>9.1999999999999993</v>
@@ -8449,7 +8350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
@@ -8501,14 +8402,14 @@
       <c r="Q12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="R12" s="2" t="s">
-        <v>92</v>
+      <c r="R12" s="2">
+        <v>20</v>
       </c>
       <c r="S12" s="2">
         <v>11.5</v>
       </c>
-      <c r="T12" s="2" t="s">
-        <v>43</v>
+      <c r="T12" s="2">
+        <v>0.1</v>
       </c>
       <c r="U12" s="2">
         <v>6.5</v>
@@ -8516,8 +8417,8 @@
       <c r="V12" s="2">
         <v>14</v>
       </c>
-      <c r="W12" s="2" t="s">
-        <v>46</v>
+      <c r="W12" s="2">
+        <v>10</v>
       </c>
       <c r="X12" s="2">
         <v>7.5</v>
@@ -8556,9 +8457,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>0</v>
@@ -8587,18 +8488,18 @@
       <c r="J13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="N13" s="5"/>
-      <c r="O13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="P13" s="5"/>
+      <c r="K13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="8"/>
+      <c r="M13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" s="8"/>
+      <c r="O13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="P13" s="8"/>
       <c r="Q13" s="3" t="s">
         <v>0</v>
       </c>
@@ -8657,9 +8558,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
@@ -8709,17 +8610,17 @@
       <c r="Q14" s="2">
         <v>28</v>
       </c>
-      <c r="R14" s="2" t="s">
-        <v>34</v>
+      <c r="R14" s="2">
+        <v>12.5</v>
       </c>
       <c r="S14" s="2">
         <v>5.8</v>
       </c>
-      <c r="T14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U14" s="2" t="s">
-        <v>34</v>
+      <c r="T14" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="U14" s="2">
+        <v>2.5</v>
       </c>
       <c r="V14" s="2">
         <v>21.8</v>
@@ -8764,11 +8665,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="5"/>
+    <row r="15" spans="1:35" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="8"/>
       <c r="C15" s="2">
         <v>1000</v>
       </c>
@@ -8814,8 +8715,8 @@
       <c r="Q15" s="2">
         <v>32</v>
       </c>
-      <c r="R15" s="2" t="s">
-        <v>35</v>
+      <c r="R15" s="2">
+        <v>12.8</v>
       </c>
       <c r="S15" s="2">
         <v>6.5</v>
@@ -8823,8 +8724,8 @@
       <c r="T15" s="2">
         <v>0.2</v>
       </c>
-      <c r="U15" s="2" t="s">
-        <v>35</v>
+      <c r="U15" s="2">
+        <v>2.8</v>
       </c>
       <c r="V15" s="2">
         <v>24.5</v>
@@ -8869,11 +8770,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="7"/>
+    <row r="16" spans="1:35" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="6"/>
       <c r="C16" s="2">
         <v>880</v>
       </c>
@@ -8919,17 +8820,17 @@
       <c r="Q16" s="2">
         <v>8</v>
       </c>
-      <c r="R16" s="2" t="s">
-        <v>35</v>
+      <c r="R16" s="2">
+        <v>12.8</v>
       </c>
       <c r="S16" s="2">
         <v>6.6</v>
       </c>
-      <c r="T16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U16" s="2" t="s">
-        <v>35</v>
+      <c r="T16" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="U16" s="2">
+        <v>2.8</v>
       </c>
       <c r="V16" s="2">
         <v>29</v>
@@ -8974,11 +8875,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="5"/>
+    <row r="17" spans="1:35" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="8"/>
       <c r="C17" s="2">
         <v>1000</v>
       </c>
@@ -9030,8 +8931,8 @@
       <c r="S17" s="2">
         <v>7.5</v>
       </c>
-      <c r="T17" s="2" t="s">
-        <v>30</v>
+      <c r="T17" s="2">
+        <v>0.2</v>
       </c>
       <c r="U17" s="2">
         <v>3.2</v>
@@ -9079,11 +8980,11 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="7"/>
+    <row r="18" spans="1:35" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="6"/>
       <c r="C18" s="2">
         <v>880</v>
       </c>
@@ -9135,8 +9036,8 @@
       <c r="S18" s="2">
         <v>6.4</v>
       </c>
-      <c r="T18" s="2" t="s">
-        <v>30</v>
+      <c r="T18" s="2">
+        <v>0.2</v>
       </c>
       <c r="U18" s="2">
         <v>2.7</v>
@@ -9184,11 +9085,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:35" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="5"/>
+    <row r="19" spans="1:35" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="8"/>
       <c r="C19" s="2">
         <v>1000</v>
       </c>
@@ -9240,8 +9141,8 @@
       <c r="S19" s="2">
         <v>7.3</v>
       </c>
-      <c r="T19" s="2" t="s">
-        <v>26</v>
+      <c r="T19" s="2">
+        <v>0.3</v>
       </c>
       <c r="U19" s="2">
         <v>3.1</v>
@@ -9289,11 +9190,11 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="36" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" s="7"/>
+    <row r="20" spans="1:35" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="6"/>
       <c r="C20" s="2">
         <v>880</v>
       </c>
@@ -9345,11 +9246,11 @@
       <c r="S20" s="2">
         <v>6.3</v>
       </c>
-      <c r="T20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U20" s="2" t="s">
-        <v>44</v>
+      <c r="T20" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="U20" s="2">
+        <v>2.6</v>
       </c>
       <c r="V20" s="2">
         <v>26.4</v>
@@ -9394,11 +9295,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="5"/>
+    <row r="21" spans="1:35" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="8"/>
       <c r="C21" s="2">
         <v>1000</v>
       </c>
@@ -9450,14 +9351,14 @@
       <c r="S21" s="2">
         <v>7.2</v>
       </c>
-      <c r="T21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="U21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="V21" s="2" t="s">
-        <v>93</v>
+      <c r="T21" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="U21" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="V21" s="2">
+        <v>30</v>
       </c>
       <c r="W21" s="2">
         <v>6.8</v>
@@ -9499,11 +9400,11 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:35" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="7"/>
+    <row r="22" spans="1:35" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="6"/>
       <c r="C22" s="2">
         <v>890</v>
       </c>
@@ -9549,17 +9450,17 @@
       <c r="Q22" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="R22" s="2" t="s">
-        <v>41</v>
+      <c r="R22" s="2">
+        <v>12.7</v>
       </c>
       <c r="S22" s="2">
         <v>6.1</v>
       </c>
-      <c r="T22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U22" s="2" t="s">
-        <v>31</v>
+      <c r="T22" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="U22" s="2">
+        <v>2.2999999999999998</v>
       </c>
       <c r="V22" s="2">
         <v>24</v>
@@ -9604,11 +9505,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:35" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="5"/>
+    <row r="23" spans="1:35" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="8"/>
       <c r="C23" s="2">
         <v>1000</v>
       </c>
@@ -9660,11 +9561,11 @@
       <c r="S23" s="2">
         <v>6.8</v>
       </c>
-      <c r="T23" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U23" s="2" t="s">
-        <v>44</v>
+      <c r="T23" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="U23" s="2">
+        <v>2.6</v>
       </c>
       <c r="V23" s="2">
         <v>27</v>
@@ -9709,11 +9610,11 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:35" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="7"/>
+    <row r="24" spans="1:35" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="6"/>
       <c r="C24" s="2">
         <v>900</v>
       </c>
@@ -9765,11 +9666,11 @@
       <c r="S24" s="2">
         <v>7.2</v>
       </c>
-      <c r="T24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U24" s="2" t="s">
-        <v>41</v>
+      <c r="T24" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="U24" s="2">
+        <v>2.7</v>
       </c>
       <c r="V24" s="2">
         <v>36.9</v>
@@ -9814,11 +9715,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:35" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="5"/>
+    <row r="25" spans="1:35" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="8"/>
       <c r="C25" s="2">
         <v>1000</v>
       </c>
@@ -9870,8 +9771,8 @@
       <c r="S25" s="2">
         <v>8</v>
       </c>
-      <c r="T25" s="2" t="s">
-        <v>30</v>
+      <c r="T25" s="2">
+        <v>0.2</v>
       </c>
       <c r="U25" s="2">
         <v>3</v>
@@ -9919,11 +9820,11 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:35" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B26" s="7"/>
+    <row r="26" spans="1:35" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="6"/>
       <c r="C26" s="2">
         <v>880</v>
       </c>
@@ -9960,10 +9861,10 @@
       <c r="N26" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="O26" s="6">
+      <c r="O26" s="5">
         <v>352</v>
       </c>
-      <c r="P26" s="7"/>
+      <c r="P26" s="6"/>
       <c r="Q26" s="2">
         <v>22</v>
       </c>
@@ -9973,8 +9874,8 @@
       <c r="S26" s="2">
         <v>1.4</v>
       </c>
-      <c r="T26" s="2" t="s">
-        <v>30</v>
+      <c r="T26" s="2">
+        <v>0.2</v>
       </c>
       <c r="U26" s="2">
         <v>1.8</v>
@@ -10022,11 +9923,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:35" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="5"/>
+    <row r="27" spans="1:35" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="8"/>
       <c r="C27" s="2">
         <v>1000</v>
       </c>
@@ -10057,14 +9958,14 @@
       <c r="L27" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M27" s="6">
+      <c r="M27" s="5">
         <v>600</v>
       </c>
-      <c r="N27" s="7"/>
-      <c r="O27" s="6">
+      <c r="N27" s="6"/>
+      <c r="O27" s="5">
         <v>400</v>
       </c>
-      <c r="P27" s="7"/>
+      <c r="P27" s="6"/>
       <c r="Q27" s="2">
         <v>25</v>
       </c>
@@ -10077,8 +9978,8 @@
       <c r="T27" s="2">
         <v>0.2</v>
       </c>
-      <c r="U27" s="2" t="s">
-        <v>40</v>
+      <c r="U27" s="2">
+        <v>12</v>
       </c>
       <c r="V27" s="2">
         <v>8.8000000000000007</v>
@@ -10086,8 +9987,8 @@
       <c r="W27" s="2">
         <v>1.3</v>
       </c>
-      <c r="X27" s="2" t="s">
-        <v>32</v>
+      <c r="X27" s="2">
+        <v>12.2</v>
       </c>
       <c r="Y27" s="2">
         <v>4.9000000000000004</v>
@@ -10123,11 +10024,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:35" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" s="7"/>
+    <row r="28" spans="1:35" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="6"/>
       <c r="C28" s="2">
         <v>999</v>
       </c>
@@ -10158,14 +10059,14 @@
       <c r="L28" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M28" s="6">
-        <v>0</v>
-      </c>
-      <c r="N28" s="7"/>
-      <c r="O28" s="6">
-        <v>0</v>
-      </c>
-      <c r="P28" s="7"/>
+      <c r="M28" s="5">
+        <v>0</v>
+      </c>
+      <c r="N28" s="6"/>
+      <c r="O28" s="5">
+        <v>0</v>
+      </c>
+      <c r="P28" s="6"/>
       <c r="Q28" s="2">
         <v>0</v>
       </c>
@@ -10224,11 +10125,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:35" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="5"/>
+    <row r="29" spans="1:35" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="8"/>
       <c r="C29" s="2">
         <v>1000</v>
       </c>
@@ -10253,18 +10154,18 @@
       <c r="J29" s="2">
         <v>0</v>
       </c>
-      <c r="K29" s="6">
-        <v>0</v>
-      </c>
-      <c r="L29" s="7"/>
-      <c r="M29" s="6">
-        <v>0</v>
-      </c>
-      <c r="N29" s="7"/>
-      <c r="O29" s="6">
-        <v>0</v>
-      </c>
-      <c r="P29" s="7"/>
+      <c r="K29" s="5">
+        <v>0</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="5">
+        <v>0</v>
+      </c>
+      <c r="N29" s="6"/>
+      <c r="O29" s="5">
+        <v>0</v>
+      </c>
+      <c r="P29" s="6"/>
       <c r="Q29" s="2">
         <v>0</v>
       </c>
@@ -10323,11 +10224,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:35" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B30" s="7"/>
+    <row r="30" spans="1:35" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="6"/>
       <c r="C30" s="3" t="s">
         <v>0</v>
       </c>
@@ -10352,18 +10253,18 @@
       <c r="J30" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K30" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="L30" s="5"/>
-      <c r="M30" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="N30" s="5"/>
-      <c r="O30" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="P30" s="5"/>
+      <c r="K30" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L30" s="8"/>
+      <c r="M30" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="N30" s="8"/>
+      <c r="O30" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="P30" s="8"/>
       <c r="Q30" s="3" t="s">
         <v>0</v>
       </c>
@@ -10422,11 +10323,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:35" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" s="7"/>
+    <row r="31" spans="1:35" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="6"/>
       <c r="C31" s="2">
         <v>900</v>
       </c>
@@ -10451,32 +10352,32 @@
       <c r="J31" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K31" s="5">
         <v>23</v>
       </c>
-      <c r="L31" s="7"/>
-      <c r="M31" s="6">
+      <c r="L31" s="6"/>
+      <c r="M31" s="5">
         <v>335</v>
       </c>
-      <c r="N31" s="7"/>
-      <c r="O31" s="6">
+      <c r="N31" s="6"/>
+      <c r="O31" s="5">
         <v>270</v>
       </c>
-      <c r="P31" s="7"/>
+      <c r="P31" s="6"/>
       <c r="Q31" s="2">
         <v>85</v>
       </c>
-      <c r="R31" s="2" t="s">
-        <v>34</v>
+      <c r="R31" s="2">
+        <v>12.5</v>
       </c>
       <c r="S31" s="2">
         <v>7.2</v>
       </c>
-      <c r="T31" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U31" s="2" t="s">
-        <v>41</v>
+      <c r="T31" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="U31" s="2">
+        <v>12.7</v>
       </c>
       <c r="V31" s="2">
         <v>6.2</v>
@@ -10484,8 +10385,8 @@
       <c r="W31" s="2">
         <v>3.9</v>
       </c>
-      <c r="X31" s="2" t="s">
-        <v>45</v>
+      <c r="X31" s="2">
+        <v>12.9</v>
       </c>
       <c r="Y31" s="2">
         <v>6.5</v>
@@ -10521,11 +10422,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:35" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="5"/>
+    <row r="32" spans="1:35" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="8"/>
       <c r="C32" s="2">
         <v>1000</v>
       </c>
@@ -10550,29 +10451,29 @@
       <c r="J32" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K32" s="5">
         <v>25</v>
       </c>
-      <c r="L32" s="7"/>
-      <c r="M32" s="6">
+      <c r="L32" s="6"/>
+      <c r="M32" s="5">
         <v>372</v>
       </c>
-      <c r="N32" s="7"/>
-      <c r="O32" s="6">
+      <c r="N32" s="6"/>
+      <c r="O32" s="5">
         <v>300</v>
       </c>
-      <c r="P32" s="7"/>
+      <c r="P32" s="6"/>
       <c r="Q32" s="2">
         <v>94</v>
       </c>
-      <c r="R32" s="2" t="s">
-        <v>35</v>
+      <c r="R32" s="2">
+        <v>12.8</v>
       </c>
       <c r="S32" s="2">
         <v>8</v>
       </c>
-      <c r="T32" s="2" t="s">
-        <v>30</v>
+      <c r="T32" s="2">
+        <v>0.2</v>
       </c>
       <c r="U32" s="2">
         <v>3</v>
@@ -10620,11 +10521,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:35" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B33" s="7"/>
+    <row r="33" spans="1:35" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="6"/>
       <c r="C33" s="2">
         <v>880</v>
       </c>
@@ -10649,18 +10550,18 @@
       <c r="J33" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K33" s="6">
+      <c r="K33" s="5">
         <v>149</v>
       </c>
-      <c r="L33" s="7"/>
-      <c r="M33" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="N33" s="5"/>
-      <c r="O33" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="P33" s="5"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="N33" s="8"/>
+      <c r="O33" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="P33" s="8"/>
       <c r="Q33" s="3" t="s">
         <v>0</v>
       </c>
@@ -10670,8 +10571,8 @@
       <c r="S33" s="2">
         <v>6.2</v>
       </c>
-      <c r="T33" s="2" t="s">
-        <v>30</v>
+      <c r="T33" s="2">
+        <v>0.2</v>
       </c>
       <c r="U33" s="2">
         <v>3.3</v>
@@ -10682,14 +10583,14 @@
       <c r="W33" s="2">
         <v>3.8</v>
       </c>
-      <c r="X33" s="2" t="s">
-        <v>35</v>
+      <c r="X33" s="2">
+        <v>12.8</v>
       </c>
       <c r="Y33" s="2">
         <v>6.2</v>
       </c>
-      <c r="Z33" s="2" t="s">
-        <v>32</v>
+      <c r="Z33" s="2">
+        <v>12.2</v>
       </c>
       <c r="AA33" s="3" t="s">
         <v>0</v>
@@ -10719,11 +10620,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:35" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="5"/>
+    <row r="34" spans="1:35" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="8"/>
       <c r="C34" s="2">
         <v>1000</v>
       </c>
@@ -10748,18 +10649,18 @@
       <c r="J34" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K34" s="6">
+      <c r="K34" s="5">
         <v>169</v>
       </c>
-      <c r="L34" s="7"/>
-      <c r="M34" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="N34" s="5"/>
-      <c r="O34" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="P34" s="5"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="N34" s="8"/>
+      <c r="O34" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="P34" s="8"/>
       <c r="Q34" s="3" t="s">
         <v>0</v>
       </c>
@@ -10769,8 +10670,8 @@
       <c r="S34" s="2">
         <v>7.1</v>
       </c>
-      <c r="T34" s="2" t="s">
-        <v>30</v>
+      <c r="T34" s="2">
+        <v>0.2</v>
       </c>
       <c r="U34" s="2">
         <v>3.7</v>
@@ -10787,8 +10688,8 @@
       <c r="Y34" s="2">
         <v>7.1</v>
       </c>
-      <c r="Z34" s="2" t="s">
-        <v>34</v>
+      <c r="Z34" s="2">
+        <v>12.5</v>
       </c>
       <c r="AA34" s="2">
         <v>60</v>
@@ -10818,11 +10719,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:35" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B35" s="7"/>
+    <row r="35" spans="1:35" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="6"/>
       <c r="C35" s="2">
         <v>910</v>
       </c>
@@ -10847,18 +10748,18 @@
       <c r="J35" s="2">
         <v>91</v>
       </c>
-      <c r="K35" s="6">
+      <c r="K35" s="5">
         <v>118</v>
       </c>
-      <c r="L35" s="7"/>
-      <c r="M35" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="N35" s="5"/>
-      <c r="O35" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="P35" s="5"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="N35" s="8"/>
+      <c r="O35" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="P35" s="8"/>
       <c r="Q35" s="3" t="s">
         <v>0</v>
       </c>
@@ -10868,11 +10769,11 @@
       <c r="S35" s="2">
         <v>9.6</v>
       </c>
-      <c r="T35" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="U35" s="2" t="s">
-        <v>41</v>
+      <c r="T35" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="U35" s="2">
+        <v>12.7</v>
       </c>
       <c r="V35" s="2">
         <v>11.6</v>
@@ -10917,11 +10818,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:35" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="5"/>
+    <row r="36" spans="1:35" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="8"/>
       <c r="C36" s="2">
         <v>1000</v>
       </c>
@@ -10946,35 +10847,35 @@
       <c r="J36" s="2">
         <v>100</v>
       </c>
-      <c r="K36" s="6">
+      <c r="K36" s="5">
         <v>130</v>
       </c>
-      <c r="L36" s="7"/>
-      <c r="M36" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="N36" s="5"/>
-      <c r="O36" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="P36" s="5"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="N36" s="8"/>
+      <c r="O36" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="P36" s="8"/>
       <c r="Q36" s="3" t="s">
         <v>0</v>
       </c>
       <c r="R36" s="2">
         <v>3.7</v>
       </c>
-      <c r="S36" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="T36" s="2" t="s">
-        <v>26</v>
+      <c r="S36" s="2">
+        <v>10.6</v>
+      </c>
+      <c r="T36" s="2">
+        <v>0.3</v>
       </c>
       <c r="U36" s="2">
         <v>3</v>
       </c>
-      <c r="V36" s="2" t="s">
-        <v>94</v>
+      <c r="V36" s="2">
+        <v>112.7</v>
       </c>
       <c r="W36" s="2">
         <v>8</v>
@@ -11016,11 +10917,11 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:35" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B37" s="7"/>
+    <row r="37" spans="1:35" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="6"/>
       <c r="C37" s="2">
         <v>890</v>
       </c>
@@ -11045,18 +10946,18 @@
       <c r="J37" s="2">
         <v>58</v>
       </c>
-      <c r="K37" s="6">
+      <c r="K37" s="5">
         <v>200</v>
       </c>
-      <c r="L37" s="7"/>
-      <c r="M37" s="6">
+      <c r="L37" s="6"/>
+      <c r="M37" s="5">
         <v>320</v>
       </c>
-      <c r="N37" s="7"/>
-      <c r="O37" s="6">
+      <c r="N37" s="6"/>
+      <c r="O37" s="5">
         <v>240</v>
       </c>
-      <c r="P37" s="7"/>
+      <c r="P37" s="6"/>
       <c r="Q37" s="2">
         <v>64</v>
       </c>
@@ -11066,8 +10967,8 @@
       <c r="S37" s="2">
         <v>9.8000000000000007</v>
       </c>
-      <c r="T37" s="2" t="s">
-        <v>30</v>
+      <c r="T37" s="2">
+        <v>0.2</v>
       </c>
       <c r="U37" s="2">
         <v>4.9000000000000004</v>
@@ -11115,11 +11016,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:35" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="5"/>
+    <row r="38" spans="1:35" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="8"/>
       <c r="C38" s="2">
         <v>1000</v>
       </c>
@@ -11144,18 +11045,18 @@
       <c r="J38" s="2">
         <v>65</v>
       </c>
-      <c r="K38" s="6">
+      <c r="K38" s="5">
         <v>225</v>
       </c>
-      <c r="L38" s="7"/>
-      <c r="M38" s="6">
+      <c r="L38" s="6"/>
+      <c r="M38" s="5">
         <v>360</v>
       </c>
-      <c r="N38" s="7"/>
-      <c r="O38" s="6">
+      <c r="N38" s="6"/>
+      <c r="O38" s="5">
         <v>270</v>
       </c>
-      <c r="P38" s="7"/>
+      <c r="P38" s="6"/>
       <c r="Q38" s="2">
         <v>72</v>
       </c>
@@ -11165,8 +11066,8 @@
       <c r="S38" s="2">
         <v>11</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>30</v>
+      <c r="T38" s="2">
+        <v>0.2</v>
       </c>
       <c r="U38" s="2">
         <v>5.5</v>
@@ -11216,6 +11117,63 @@
     </row>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="K37:L37"/>
     <mergeCell ref="M37:N37"/>
@@ -11224,63 +11182,6 @@
     <mergeCell ref="K38:L38"/>
     <mergeCell ref="M38:N38"/>
     <mergeCell ref="O38:P38"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11290,16 +11191,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD8B2246-A7E2-1543-824E-7D2E9171AEDC}">
   <dimension ref="A1:AF12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="N7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="O1" sqref="O1:AF12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.70703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11369,7 +11270,7 @@
       <c r="W1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="8">
+      <c r="X1" s="4">
         <v>0</v>
       </c>
       <c r="Y1" s="1" t="s">
@@ -11397,9 +11298,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="24.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" ht="27" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -11446,8 +11347,8 @@
       <c r="P2" s="2">
         <v>8.5</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>30</v>
+      <c r="Q2" s="2">
+        <v>0.2</v>
       </c>
       <c r="R2" s="2">
         <v>4.4000000000000004</v>
@@ -11495,7 +11396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -11544,8 +11445,8 @@
       <c r="P3" s="2">
         <v>9.4</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>30</v>
+      <c r="Q3" s="2">
+        <v>0.2</v>
       </c>
       <c r="R3" s="2">
         <v>4.9000000000000004</v>
@@ -11593,9 +11494,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="24.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" ht="27" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
@@ -11642,20 +11543,20 @@
       <c r="P4" s="2">
         <v>9.4</v>
       </c>
-      <c r="Q4" s="2" t="s">
-        <v>30</v>
+      <c r="Q4" s="2">
+        <v>0.2</v>
       </c>
       <c r="R4" s="2">
         <v>4.9000000000000004</v>
       </c>
-      <c r="S4" s="2" t="s">
-        <v>101</v>
+      <c r="S4" s="2">
+        <v>112.4</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="V4" s="2">
         <v>12.7</v>
@@ -11691,7 +11592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -11737,8 +11638,8 @@
       <c r="O5" s="2">
         <v>3.4</v>
       </c>
-      <c r="P5" s="2" t="s">
-        <v>103</v>
+      <c r="P5" s="2">
+        <v>10.3</v>
       </c>
       <c r="Q5" s="2">
         <v>0.2</v>
@@ -11789,9 +11690,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
@@ -11838,8 +11739,8 @@
       <c r="P6" s="2">
         <v>9.6999999999999993</v>
       </c>
-      <c r="Q6" s="2" t="s">
-        <v>43</v>
+      <c r="Q6" s="2">
+        <v>0.1</v>
       </c>
       <c r="R6" s="2">
         <v>4.9000000000000004</v>
@@ -11853,8 +11754,8 @@
       <c r="U6" s="2">
         <v>4.5999999999999996</v>
       </c>
-      <c r="V6" s="2" t="s">
-        <v>104</v>
+      <c r="V6" s="2">
+        <v>10.199999999999999</v>
       </c>
       <c r="W6" s="2">
         <v>3.5</v>
@@ -11887,7 +11788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -11933,17 +11834,17 @@
       <c r="O7" s="2">
         <v>4.2</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>43</v>
+      <c r="P7" s="2">
+        <v>10.7</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0.1</v>
       </c>
       <c r="R7" s="2">
         <v>5.4</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>105</v>
+      <c r="S7" s="2">
+        <v>10.9</v>
       </c>
       <c r="T7" s="2">
         <v>6.7</v>
@@ -11985,9 +11886,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
@@ -12083,7 +11984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
@@ -12181,9 +12082,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
@@ -12279,9 +12180,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>0</v>
@@ -12377,7 +12278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
